--- a/individual_results/avey/117.xlsx
+++ b/individual_results/avey/117.xlsx
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.2</v>
@@ -516,7 +516,7 @@
         <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
         <v>0.25</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.25</v>
@@ -562,7 +562,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>0.25</v>
@@ -598,16 +598,16 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.2222222222222222</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.2222222222222222</v>
       </c>
       <c r="D4" t="n">
         <v>0.4444444444444445</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="F4" t="n">
         <v>0.25</v>
       </c>
@@ -640,16 +640,16 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.2380952380952381</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.2380952380952381</v>
       </c>
       <c r="D5" t="n">
         <v>0.4761904761904762</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.2777777777777778</v>
+      </c>
       <c r="F5" t="n">
         <v>0.25</v>
       </c>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1639560451351592</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.3513343824324839</v>
@@ -692,7 +692,7 @@
         <v>0.9095582591723214</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.7026687648649679</v>
       </c>
       <c r="F6" t="n">
         <v>0.3279120902703183</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -873,7 +873,9 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
